--- a/SCOC25/SCOC_RFseq_mastermixcockatils.xlsx
+++ b/SCOC25/SCOC_RFseq_mastermixcockatils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/OVCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/SCOC25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D9BBE-20B3-8849-8BF6-F343AFFB3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6D6FB-7E9B-F443-AABF-B155923D032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="5720" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -172,13 +172,13 @@
     <t>***2 for a full library</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Adjusted Sample Number:</t>
   </si>
   <si>
-    <t>sahale</t>
+    <t>div 2</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,11 +947,11 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> 576*1.3</f>
-        <v>748.80000000000007</v>
+        <f xml:space="preserve"> 672*1.2</f>
+        <v>806.4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -961,6 +961,9 @@
       <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -971,10 +974,14 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>861.12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
+        <v>927.3599999999999</v>
+      </c>
+      <c r="D3">
+        <f>C3/2</f>
+        <v>463.67999999999995</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,10 +993,14 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>449.28000000000003</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
+        <v>483.84</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">C4/2</f>
+        <v>241.92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1001,10 +1012,14 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>449.28000000000003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
+        <v>483.84</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>241.92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,10 +1031,14 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
+        <v>201.6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>100.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,10 +1050,14 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>89.856000000000009</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
+        <v>96.768000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>48.384</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1046,10 +1069,14 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>209.66400000000004</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
+        <v>225.792</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>112.896</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,7 +1088,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>2246.4</v>
+        <v>2419.1999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1070,7 +1097,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>187.20000000000002</v>
+        <v>201.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,10 +1128,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>748.80000000000007</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>806.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,10 +1140,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>53.913600000000002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>58.060799999999993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,10 +1152,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>74.88000000000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>80.64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,11 +1164,9 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>37.440000000000005</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>40.32</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1161,10 +1177,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>37.440000000000005</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1176,10 +1189,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>125.42400000000002</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
+        <v>135.072</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,7 +1201,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>1077.8976000000002</v>
+        <v>1160.8128000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,7 +1210,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>89.824800000000025</v>
+        <v>96.734400000000008</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1246,10 +1256,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>7240.8960000000006</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+        <v>7797.8879999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,10 +1268,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>2995.2000000000003</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>3225.6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,10 +1280,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>299.52000000000004</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,10 +1292,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>299.52000000000004</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,11 +1304,9 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>995.90400000000011</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>45</v>
-      </c>
+        <v>1072.5119999999999</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1321,10 +1317,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>149.76000000000002</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
+        <v>161.28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,10 +1329,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>112.32000000000001</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
+        <v>120.96</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1350,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>12093.120000000003</v>
+        <v>13023.359999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1403,10 +1393,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>318.24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+        <v>342.71999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,10 +1405,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>299.52000000000004</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,7 +1417,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>995.90400000000011</v>
+        <v>1072.5119999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1442,7 +1426,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1613.6640000000002</v>
+        <v>1737.7919999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,14 +1438,12 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>134.47200000000001</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>144.816</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>76.841142857142856</v>
+        <v>82.751999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,7 +1465,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>936</v>
+        <v>1007.9999999999999</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1504,7 +1486,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>486.72</v>
+        <v>524.16</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1523,7 +1505,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>486.72</v>
+        <v>524.16</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1542,7 +1524,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>7482.0096000000003</v>
+        <v>8057.5488000000005</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1561,7 +1543,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>89.856000000000009</v>
+        <v>96.768000000000001</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1580,7 +1562,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>209.66400000000004</v>
+        <v>225.792</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1599,7 +1581,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>748.80000000000007</v>
+        <v>806.4</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1618,7 +1600,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>125.42400000000002</v>
+        <v>135.072</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1636,7 +1618,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>3313.4400000000005</v>
+        <v>3568.3199999999997</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1657,7 +1639,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>599.04000000000008</v>
+        <v>645.12</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1648,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>299.52000000000004</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1675,7 +1657,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1991.8080000000002</v>
+        <v>2145.0239999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1666,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>149.76000000000002</v>
+        <v>161.28</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1693,7 +1675,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>112.32000000000001</v>
+        <v>120.96</v>
       </c>
     </row>
   </sheetData>

--- a/SCOC25/SCOC_RFseq_mastermixcockatils.xlsx
+++ b/SCOC25/SCOC_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/SCOC25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6D6FB-7E9B-F443-AABF-B155923D032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFB29C-AF5E-BF44-B151-47D8AA2E36E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="5720" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2460" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>***2 for a full library</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Adjusted Sample Number:</t>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5">
         <f xml:space="preserve"> 672*1.2</f>
@@ -962,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,7 +984,7 @@
         <v>463.67999999999995</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,7 +1003,7 @@
         <v>241.92</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,7 +1022,7 @@
         <v>241.92</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,7 +1041,7 @@
         <v>100.8</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,7 +1060,7 @@
         <v>48.384</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1079,7 @@
         <v>112.896</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1130,6 +1133,9 @@
         <f>B15*E1</f>
         <v>806.4</v>
       </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1142,6 +1148,9 @@
         <f>B16*E1</f>
         <v>58.060799999999993</v>
       </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1154,6 +1163,9 @@
         <f>B17*E1</f>
         <v>80.64</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1166,7 +1178,9 @@
         <f>B18*E1</f>
         <v>40.32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1179,6 +1193,9 @@
         <f>B19*E1</f>
         <v>40.32</v>
       </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1190,6 +1207,9 @@
       <c r="C20" s="24">
         <f>B20*E1</f>
         <v>135.072</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,6 +1278,9 @@
         <f>B29*E1</f>
         <v>7797.8879999999999</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -1270,6 +1293,9 @@
         <f>4*E1</f>
         <v>3225.6</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1282,6 +1308,9 @@
         <f>B31*E1</f>
         <v>322.56</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1294,6 +1323,9 @@
         <f>B32*E1</f>
         <v>322.56</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1306,7 +1338,9 @@
         <f>B33*E1</f>
         <v>1072.5119999999999</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1319,6 +1353,9 @@
         <f>B34*E1</f>
         <v>161.28</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1330,6 +1367,9 @@
       <c r="C35" s="23">
         <f>B35*E1</f>
         <v>120.96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1395,6 +1435,9 @@
         <f>E$1*B44</f>
         <v>342.71999999999997</v>
       </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -1407,6 +1450,9 @@
         <f>E$1*B45</f>
         <v>322.56</v>
       </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -1418,6 +1464,9 @@
       <c r="C46" s="23">
         <f>E$1*B46</f>
         <v>1072.5119999999999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
